--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value564.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value564.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.3950834208888721</v>
+        <v>1.044463038444519</v>
       </c>
       <c r="B1">
-        <v>0.6568817594963196</v>
+        <v>1.39484441280365</v>
       </c>
       <c r="C1">
-        <v>2.030457528793429</v>
+        <v>2.268747568130493</v>
       </c>
       <c r="D1">
-        <v>3.237140227170448</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>2.141717611000562</v>
+        <v>1.874749779701233</v>
       </c>
     </row>
   </sheetData>
